--- a/biology/Zoologie/Dysagrioninae/Dysagrioninae.xlsx
+++ b/biology/Zoologie/Dysagrioninae/Dysagrioninae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dysagrionini
 Les Dysagrionini sont la seule tribu fossile de la sous-famille des Dysagrioninae de la famille des Dysagrionidae, une famille d'insectes Odonates.
@@ -513,14 +525,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette sous-famille des Dysagrioninae est décrite par le paléontologue américain Theodore Dru Alison Cockerell (1866-1948) en 1908[1],[2]. 
-La tribu des Dysagrionini est aussi décrite par le paléontologue américain Theodore Dru Alison Cockerell (1866-1948) en 1908[1],[3]
-Fossiles
-Selon Paleobiology Database en 2023, vingt-trois collections de fossiles, pour cinquante-et-une occurrences sont référencées[2] : 
-Miocene : une collection de Bulgarie et une de Croatie ;
-Éocène : Canada (7 en Colombie-Britannique), Danemark (1), Russie (2), Royaume-Uni (1), États-Unis (10: Colorado, Washington, Wyoming) ;</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette sous-famille des Dysagrioninae est décrite par le paléontologue américain Theodore Dru Alison Cockerell (1866-1948) en 1908,. 
+La tribu des Dysagrionini est aussi décrite par le paléontologue américain Theodore Dru Alison Cockerell (1866-1948) en 1908,
+</t>
         </is>
       </c>
     </row>
@@ -545,12 +556,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, vingt-trois collections de fossiles, pour cinquante-et-une occurrences sont référencées : 
+Miocene : une collection de Bulgarie et une de Croatie ;
+Éocène : Canada (7 en Colombie-Britannique), Danemark (1), Russie (2), Royaume-Uni (1), États-Unis (10: Colorado, Washington, Wyoming) ;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dysagrioninae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dysagrioninae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Tribu et genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La sous-famille Dysagrioninae a une tribu incluse Dysagrionini et neuf genres fossiles[2],[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille Dysagrioninae a une tribu incluse Dysagrionini et neuf genres fossiles, :
 †Allenbya Archibald and Cannings, 2022
 †Dysagrion Scudder, 1878
 †Dysagrionites Archibald and Cannings, 2021
@@ -559,11 +610,46 @@
 †Okanopteryx Archibald and Cannings, 2021
 †Phenacolestes Cockerell, 1908
 †Primorilestes Nel et al., 2005
-†Stenodiafanus Archibald and Cannings, 2021[2],[3]
-Selon Paleobiology Database en 2023, le périmètre de la tribu semble exactement le même que celui de la sous-famille[2],[3].
-Genre type
-Le genre type de la tribu des Dysagrionini est 
-†Dysagrion Scudder, 1878[3].</t>
+†Stenodiafanus Archibald and Cannings, 2021,
+Selon Paleobiology Database en 2023, le périmètre de la tribu semble exactement le même que celui de la sous-famille,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dysagrioninae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dysagrioninae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Tribu et genres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Genre type</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le genre type de la tribu des Dysagrionini est 
+†Dysagrion Scudder, 1878.</t>
         </is>
       </c>
     </row>
